--- a/src/main/webapp/File/Phân công.xlsx
+++ b/src/main/webapp/File/Phân công.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\All\QuanLiCLB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F7CE0B-2CA4-4650-B7A2-A74206D5DA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3294373D-90C7-40C7-A444-D3E3E01A06EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phân công" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t>PHÂN CÔNG LÀM DỰ ÁN : QUẢN LÍ CLB TIN HỌC</t>
   </si>
@@ -253,13 +253,28 @@
     <t>Ngày mai 17/12/2022 tối 22h</t>
   </si>
   <si>
-    <t>Ngày mai 17/12/2022 sáng 13h</t>
-  </si>
-  <si>
     <t>Tân,linh</t>
   </si>
   <si>
     <t>Trang lỗi somethong went wrong 404,500,you are not permission tùy biến</t>
+  </si>
+  <si>
+    <t>Tân,Ngân</t>
+  </si>
+  <si>
+    <t>Ngân,Linh</t>
+  </si>
+  <si>
+    <t>tooltip &lt;&gt;, chú ý db, yêu cầu lấy được list gv dạy tuần</t>
+  </si>
+  <si>
+    <t>tạm gác</t>
+  </si>
+  <si>
+    <t>Tân,Linh</t>
+  </si>
+  <si>
+    <t>Linh thêm chức năng</t>
   </si>
 </sst>
 </file>
@@ -571,6 +586,15 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,12 +637,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,26 +658,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:J21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,68 +973,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
       <c r="P1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19"/>
       <c r="P2" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="17" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="20"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="23"/>
       <c r="P3" s="3" t="s">
         <v>47</v>
       </c>
@@ -1141,8 +1156,8 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="7">
-        <v>0.75</v>
+      <c r="I8" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
@@ -1166,8 +1181,8 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="7">
-        <v>1</v>
+      <c r="I9" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
@@ -1237,7 +1252,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1279,13 +1294,13 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="6" t="s">
         <v>34</v>
       </c>
@@ -1315,8 +1330,8 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="7">
-        <v>1</v>
+      <c r="I15" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -1333,7 +1348,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1341,12 +1356,12 @@
         <v>0</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
+      <c r="K16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1357,7 +1372,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1365,12 +1380,12 @@
         <v>0</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -1385,8 +1400,8 @@
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="7">
-        <v>1</v>
+      <c r="I18" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6" t="s">
@@ -1404,15 +1419,15 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="33">
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="32">
         <v>0.33300000000000002</v>
       </c>
-      <c r="J19" s="34"/>
+      <c r="J19" s="33"/>
       <c r="K19" s="6" t="s">
         <v>66</v>
       </c>
@@ -1428,12 +1443,14 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="6"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -1446,16 +1463,18 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="37">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="6"/>
+      <c r="F21" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -1477,7 +1496,9 @@
         <v>0</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="K22" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -1507,100 +1528,100 @@
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24">
-        <v>1</v>
-      </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23" t="s">
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10">
         <v>0</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24">
-        <v>0</v>
-      </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="31">
-        <v>0</v>
-      </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22" t="s">
+      <c r="J27" s="9"/>
+      <c r="K27" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
@@ -1611,7 +1632,6 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="I19:J20"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K27:N27"/>
     <mergeCell ref="A25:E25"/>
@@ -1711,6 +1731,7 @@
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I19:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1733,18 +1754,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
